--- a/QMU/QMU_app/dataset/zhuangji/zhuangji_train.xlsx
+++ b/QMU/QMU_app/dataset/zhuangji/zhuangji_train.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\姚方浩\Desktop\MC3.0\zhuangji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\姚方浩\Desktop\QMU_app\dataset\zhuangji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C412E7-233C-4B29-BBE5-EEB2C22D1028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D198A83E-ED97-460C-8CE5-FD177A634ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="1140" windowWidth="16230" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="2580" windowWidth="16230" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,8 +353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection sqref="A1:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="C200" sqref="A1:C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -927,7 +923,7 @@
         <v>300</v>
       </c>
       <c r="B51">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -938,10 +934,10 @@
         <v>300</v>
       </c>
       <c r="B52">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -949,7 +945,7 @@
         <v>300</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -960,7 +956,7 @@
         <v>300</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -971,7 +967,7 @@
         <v>300</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>10.5</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -982,10 +978,10 @@
         <v>300</v>
       </c>
       <c r="B56">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -993,10 +989,10 @@
         <v>300</v>
       </c>
       <c r="B57">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1004,10 +1000,10 @@
         <v>300</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1015,7 +1011,7 @@
         <v>300</v>
       </c>
       <c r="B59">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1026,10 +1022,10 @@
         <v>300</v>
       </c>
       <c r="B60">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1037,7 +1033,7 @@
         <v>300</v>
       </c>
       <c r="B61">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1048,7 +1044,7 @@
         <v>300</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1059,10 +1055,10 @@
         <v>300</v>
       </c>
       <c r="B63">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1070,7 +1066,7 @@
         <v>300</v>
       </c>
       <c r="B64">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1081,7 +1077,7 @@
         <v>300</v>
       </c>
       <c r="B65">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1092,7 +1088,7 @@
         <v>300</v>
       </c>
       <c r="B66">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1103,7 +1099,7 @@
         <v>300</v>
       </c>
       <c r="B67">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1117,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1125,7 +1121,7 @@
         <v>300</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>10.5</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1136,7 +1132,7 @@
         <v>300</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1147,7 +1143,7 @@
         <v>300</v>
       </c>
       <c r="B71">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1158,10 +1154,10 @@
         <v>300</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1169,10 +1165,10 @@
         <v>300</v>
       </c>
       <c r="B73">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1180,7 +1176,7 @@
         <v>300</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1191,10 +1187,10 @@
         <v>300</v>
       </c>
       <c r="B75">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1202,10 +1198,10 @@
         <v>300</v>
       </c>
       <c r="B76">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -1213,7 +1209,7 @@
         <v>300</v>
       </c>
       <c r="B77">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1224,10 +1220,10 @@
         <v>300</v>
       </c>
       <c r="B78">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -1235,10 +1231,10 @@
         <v>300</v>
       </c>
       <c r="B79">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -1246,10 +1242,10 @@
         <v>300</v>
       </c>
       <c r="B80">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -1257,7 +1253,7 @@
         <v>300</v>
       </c>
       <c r="B81">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1268,7 +1264,7 @@
         <v>300</v>
       </c>
       <c r="B82">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -1279,7 +1275,7 @@
         <v>300</v>
       </c>
       <c r="B83">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -1301,7 +1297,7 @@
         <v>300</v>
       </c>
       <c r="B85">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -1323,7 +1319,7 @@
         <v>300</v>
       </c>
       <c r="B87">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1334,7 +1330,7 @@
         <v>300</v>
       </c>
       <c r="B88">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -1345,10 +1341,10 @@
         <v>300</v>
       </c>
       <c r="B89">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -1356,10 +1352,10 @@
         <v>300</v>
       </c>
       <c r="B90">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -1367,7 +1363,7 @@
         <v>300</v>
       </c>
       <c r="B91">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -1389,10 +1385,10 @@
         <v>300</v>
       </c>
       <c r="B93">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -1400,7 +1396,7 @@
         <v>300</v>
       </c>
       <c r="B94">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -1411,10 +1407,10 @@
         <v>300</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>10.5</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -1433,7 +1429,7 @@
         <v>300</v>
       </c>
       <c r="B97">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -1455,10 +1451,10 @@
         <v>300</v>
       </c>
       <c r="B99">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -1466,7 +1462,7 @@
         <v>300</v>
       </c>
       <c r="B100">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -1477,10 +1473,10 @@
         <v>400</v>
       </c>
       <c r="B101">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -1488,10 +1484,10 @@
         <v>400</v>
       </c>
       <c r="B102">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -1499,7 +1495,7 @@
         <v>400</v>
       </c>
       <c r="B103">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -1521,7 +1517,7 @@
         <v>400</v>
       </c>
       <c r="B105">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -1543,10 +1539,10 @@
         <v>400</v>
       </c>
       <c r="B107">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -1554,10 +1550,10 @@
         <v>400</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -1565,10 +1561,10 @@
         <v>400</v>
       </c>
       <c r="B109">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -1576,10 +1572,10 @@
         <v>400</v>
       </c>
       <c r="B110">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -1587,10 +1583,10 @@
         <v>400</v>
       </c>
       <c r="B111">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -1598,10 +1594,10 @@
         <v>400</v>
       </c>
       <c r="B112">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -1609,10 +1605,10 @@
         <v>400</v>
       </c>
       <c r="B113">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -1620,10 +1616,10 @@
         <v>400</v>
       </c>
       <c r="B114">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -1631,10 +1627,10 @@
         <v>400</v>
       </c>
       <c r="B115">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -1642,10 +1638,10 @@
         <v>400</v>
       </c>
       <c r="B116">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -1653,7 +1649,7 @@
         <v>400</v>
       </c>
       <c r="B117">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -1675,7 +1671,7 @@
         <v>400</v>
       </c>
       <c r="B119">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -1689,7 +1685,7 @@
         <v>6</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -1697,10 +1693,10 @@
         <v>400</v>
       </c>
       <c r="B121">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -1719,10 +1715,10 @@
         <v>400</v>
       </c>
       <c r="B123">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -1730,10 +1726,10 @@
         <v>400</v>
       </c>
       <c r="B124">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -1741,10 +1737,10 @@
         <v>400</v>
       </c>
       <c r="B125">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -1752,7 +1748,7 @@
         <v>400</v>
       </c>
       <c r="B126">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -1763,7 +1759,7 @@
         <v>400</v>
       </c>
       <c r="B127">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -1774,10 +1770,10 @@
         <v>400</v>
       </c>
       <c r="B128">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -1785,10 +1781,10 @@
         <v>400</v>
       </c>
       <c r="B129">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -1796,10 +1792,10 @@
         <v>400</v>
       </c>
       <c r="B130">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -1807,7 +1803,7 @@
         <v>400</v>
       </c>
       <c r="B131">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -1818,7 +1814,7 @@
         <v>400</v>
       </c>
       <c r="B132">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -1829,7 +1825,7 @@
         <v>400</v>
       </c>
       <c r="B133">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -1840,10 +1836,10 @@
         <v>400</v>
       </c>
       <c r="B134">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -1851,7 +1847,7 @@
         <v>400</v>
       </c>
       <c r="B135">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -1862,7 +1858,7 @@
         <v>400</v>
       </c>
       <c r="B136">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -1873,7 +1869,7 @@
         <v>400</v>
       </c>
       <c r="B137">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -1884,10 +1880,10 @@
         <v>400</v>
       </c>
       <c r="B138">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -1895,7 +1891,7 @@
         <v>400</v>
       </c>
       <c r="B139">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -1906,7 +1902,7 @@
         <v>400</v>
       </c>
       <c r="B140">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -1917,10 +1913,10 @@
         <v>400</v>
       </c>
       <c r="B141">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -1928,10 +1924,10 @@
         <v>400</v>
       </c>
       <c r="B142">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -1939,10 +1935,10 @@
         <v>400</v>
       </c>
       <c r="B143">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -1950,7 +1946,7 @@
         <v>400</v>
       </c>
       <c r="B144">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -1961,7 +1957,7 @@
         <v>400</v>
       </c>
       <c r="B145">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -1972,10 +1968,10 @@
         <v>400</v>
       </c>
       <c r="B146">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -1983,7 +1979,7 @@
         <v>400</v>
       </c>
       <c r="B147">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -1997,7 +1993,7 @@
         <v>6</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -2005,10 +2001,10 @@
         <v>400</v>
       </c>
       <c r="B149">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -2019,7 +2015,7 @@
         <v>6</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -2030,7 +2026,7 @@
         <v>2.5</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -2038,7 +2034,7 @@
         <v>500</v>
       </c>
       <c r="B152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -2049,7 +2045,7 @@
         <v>500</v>
       </c>
       <c r="B153">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -2060,10 +2056,10 @@
         <v>500</v>
       </c>
       <c r="B154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -2074,7 +2070,7 @@
         <v>2.5</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -2082,7 +2078,7 @@
         <v>500</v>
       </c>
       <c r="B156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -2093,7 +2089,7 @@
         <v>500</v>
       </c>
       <c r="B157">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -2104,10 +2100,10 @@
         <v>500</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -2118,7 +2114,7 @@
         <v>2.5</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -2126,10 +2122,10 @@
         <v>500</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -2162,7 +2158,7 @@
         <v>2.5</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -2170,10 +2166,10 @@
         <v>500</v>
       </c>
       <c r="B164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -2184,7 +2180,7 @@
         <v>2.5</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -2192,10 +2188,10 @@
         <v>500</v>
       </c>
       <c r="B166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -2206,7 +2202,7 @@
         <v>2.5</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -2214,10 +2210,10 @@
         <v>500</v>
       </c>
       <c r="B168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -2228,7 +2224,7 @@
         <v>2.5</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -2236,7 +2232,7 @@
         <v>500</v>
       </c>
       <c r="B170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -2247,10 +2243,10 @@
         <v>500</v>
       </c>
       <c r="B171">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -2294,7 +2290,7 @@
         <v>2.5</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -2302,10 +2298,10 @@
         <v>500</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -2316,7 +2312,7 @@
         <v>2.5</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -2324,10 +2320,10 @@
         <v>500</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -2338,7 +2334,7 @@
         <v>2.5</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -2346,10 +2342,10 @@
         <v>500</v>
       </c>
       <c r="B180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -2360,7 +2356,7 @@
         <v>2.5</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -2368,10 +2364,10 @@
         <v>500</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -2426,7 +2422,7 @@
         <v>2.5</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -2434,10 +2430,10 @@
         <v>500</v>
       </c>
       <c r="B188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -2470,7 +2466,7 @@
         <v>2.5</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -2478,10 +2474,10 @@
         <v>500</v>
       </c>
       <c r="B192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -2492,7 +2488,7 @@
         <v>2.5</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -2500,10 +2496,10 @@
         <v>500</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -2514,7 +2510,7 @@
         <v>2.5</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -2522,10 +2518,10 @@
         <v>500</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -2547,7 +2543,7 @@
         <v>2</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -2555,10 +2551,10 @@
         <v>500</v>
       </c>
       <c r="B199">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
